--- a/GameUIUXPrograming/Document/여우의 모험_데이터테이블.xlsx
+++ b/GameUIUXPrograming/Document/여우의 모험_데이터테이블.xlsx
@@ -2,42 +2,507 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHG\source\repos\2021.G.D.T.C.(Programing&amp;Designer)\GameUIUXPrograming\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14055" windowHeight="11190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemData" sheetId="1" r:id="rId1"/>
+    <sheet name="Effect" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>ItemEffect</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>yellow_gem</t>
+  </si>
+  <si>
+    <t>supe_mode_eff</t>
+  </si>
+  <si>
+    <t>super_mode_obj</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>eat_eff</t>
+  </si>
+  <si>
+    <t>recover_cherry_obj</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>hit_bullet</t>
+  </si>
+  <si>
+    <t>bullet_obj</t>
+  </si>
+  <si>
+    <t>laser_gem</t>
+  </si>
+  <si>
+    <t>hit_laser</t>
+  </si>
+  <si>
+    <t>laser_obj</t>
+  </si>
+  <si>
+    <t>grenade</t>
+  </si>
+  <si>
+    <t>explosion_eff</t>
+  </si>
+  <si>
+    <t>grenade_obj</t>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정시간동안 데미지미를 받지않는다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>체리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 모두 회복한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알 1개씩 발사한다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선상에 적에게 데미지를 준다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄을 던저 주변에 데미지를 준다</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총알</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이져</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +510,290 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +809,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +854,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +889,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1071,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>